--- a/sample-excel-sheet.xlsx
+++ b/sample-excel-sheet.xlsx
@@ -22,10 +22,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>youremail@gmail.com</t>
+    <t>DSC VJTI</t>
   </si>
   <si>
-    <t>DSC VJTI</t>
+    <t>dscvjti@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -78,11 +78,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -294,7 +295,7 @@
   <dimension ref="A1:B498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -316,14 +317,19 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B4" s="3"/>
+    </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="6" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
